--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.049481999999999</v>
+        <v>4.455765</v>
       </c>
       <c r="H2">
-        <v>27.148446</v>
+        <v>13.367295</v>
       </c>
       <c r="I2">
-        <v>0.2715881048104983</v>
+        <v>0.1558824083674925</v>
       </c>
       <c r="J2">
-        <v>0.2887858053066977</v>
+        <v>0.167793131187596</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N2">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O2">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P2">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q2">
-        <v>127.023482435148</v>
+        <v>69.99196014295498</v>
       </c>
       <c r="R2">
-        <v>1143.211341916332</v>
+        <v>629.9276412865948</v>
       </c>
       <c r="S2">
-        <v>0.08237942482078373</v>
+        <v>0.05020141676915325</v>
       </c>
       <c r="T2">
-        <v>0.09360550707765261</v>
+        <v>0.05611152993480411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.049481999999999</v>
+        <v>4.455765</v>
       </c>
       <c r="H3">
-        <v>27.148446</v>
+        <v>13.367295</v>
       </c>
       <c r="I3">
-        <v>0.2715881048104983</v>
+        <v>0.1558824083674925</v>
       </c>
       <c r="J3">
-        <v>0.2887858053066977</v>
+        <v>0.167793131187596</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>17.55978</v>
       </c>
       <c r="O3">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P3">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q3">
-        <v>52.96897101131999</v>
+        <v>26.08075104389999</v>
       </c>
       <c r="R3">
-        <v>476.72073910188</v>
+        <v>234.7267593951</v>
       </c>
       <c r="S3">
-        <v>0.03435233613193628</v>
+        <v>0.01870630069701139</v>
       </c>
       <c r="T3">
-        <v>0.03903362823820783</v>
+        <v>0.02090855635322951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.049481999999999</v>
+        <v>4.455765</v>
       </c>
       <c r="H4">
-        <v>27.148446</v>
+        <v>13.367295</v>
       </c>
       <c r="I4">
-        <v>0.2715881048104983</v>
+        <v>0.1558824083674925</v>
       </c>
       <c r="J4">
-        <v>0.2887858053066977</v>
+        <v>0.167793131187596</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N4">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O4">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P4">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q4">
-        <v>81.957602027574</v>
+        <v>48.831312340215</v>
       </c>
       <c r="R4">
-        <v>737.618418248166</v>
+        <v>439.481811061935</v>
       </c>
       <c r="S4">
-        <v>0.05315253514773766</v>
+        <v>0.03502403786333414</v>
       </c>
       <c r="T4">
-        <v>0.06039578469733972</v>
+        <v>0.03914734833168602</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.049481999999999</v>
+        <v>4.455765</v>
       </c>
       <c r="H5">
-        <v>27.148446</v>
+        <v>13.367295</v>
       </c>
       <c r="I5">
-        <v>0.2715881048104983</v>
+        <v>0.1558824083674925</v>
       </c>
       <c r="J5">
-        <v>0.2887858053066977</v>
+        <v>0.167793131187596</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N5">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O5">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P5">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q5">
-        <v>80.65677518800199</v>
+        <v>24.1029862285275</v>
       </c>
       <c r="R5">
-        <v>483.940651128012</v>
+        <v>144.617917371165</v>
       </c>
       <c r="S5">
-        <v>0.05230890084657536</v>
+        <v>0.01728775783058653</v>
       </c>
       <c r="T5">
-        <v>0.03962479060817634</v>
+        <v>0.01288200750026976</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.049481999999999</v>
+        <v>4.455765</v>
       </c>
       <c r="H6">
-        <v>27.148446</v>
+        <v>13.367295</v>
       </c>
       <c r="I6">
-        <v>0.2715881048104983</v>
+        <v>0.1558824083674925</v>
       </c>
       <c r="J6">
-        <v>0.2887858053066977</v>
+        <v>0.167793131187596</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N6">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O6">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P6">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q6">
-        <v>76.16359576472399</v>
+        <v>48.32779901317499</v>
       </c>
       <c r="R6">
-        <v>685.472361882516</v>
+        <v>434.9501911185749</v>
       </c>
       <c r="S6">
-        <v>0.04939490786346531</v>
+        <v>0.03466289520740721</v>
       </c>
       <c r="T6">
-        <v>0.05612609468532114</v>
+        <v>0.03874368906760665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>15.939302</v>
       </c>
       <c r="I7">
-        <v>0.1594538715837432</v>
+        <v>0.1858758098371279</v>
       </c>
       <c r="J7">
-        <v>0.1695509261965365</v>
+        <v>0.2000782799754709</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N7">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O7">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P7">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q7">
-        <v>74.57758899443158</v>
+        <v>83.45914340115355</v>
       </c>
       <c r="R7">
-        <v>671.1983009498842</v>
+        <v>751.1322906103819</v>
       </c>
       <c r="S7">
-        <v>0.04836632383322301</v>
+        <v>0.05986069303560653</v>
       </c>
       <c r="T7">
-        <v>0.05495734253716926</v>
+        <v>0.06690797362614374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>15.939302</v>
       </c>
       <c r="I8">
-        <v>0.1594538715837432</v>
+        <v>0.1858758098371279</v>
       </c>
       <c r="J8">
-        <v>0.1695509261965365</v>
+        <v>0.2000782799754709</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>17.55978</v>
       </c>
       <c r="O8">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P8">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q8">
         <v>31.09895960817333</v>
@@ -948,10 +948,10 @@
         <v>279.8906364735601</v>
       </c>
       <c r="S8">
-        <v>0.02016882513321183</v>
+        <v>0.02230558808737857</v>
       </c>
       <c r="T8">
-        <v>0.02291728921222683</v>
+        <v>0.02493158070485793</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>15.939302</v>
       </c>
       <c r="I9">
-        <v>0.1594538715837432</v>
+        <v>0.1858758098371279</v>
       </c>
       <c r="J9">
-        <v>0.1695509261965365</v>
+        <v>0.2000782799754709</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N9">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O9">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P9">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q9">
-        <v>48.118664689438</v>
+        <v>58.22696622218734</v>
       </c>
       <c r="R9">
-        <v>433.067982204942</v>
+        <v>524.0426959996861</v>
       </c>
       <c r="S9">
-        <v>0.03120673315096582</v>
+        <v>0.04176302810427373</v>
       </c>
       <c r="T9">
-        <v>0.03545936484975518</v>
+        <v>0.04667970651937731</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>15.939302</v>
       </c>
       <c r="I10">
-        <v>0.1594538715837432</v>
+        <v>0.1858758098371279</v>
       </c>
       <c r="J10">
-        <v>0.1695509261965365</v>
+        <v>0.2000782799754709</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N10">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O10">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P10">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q10">
-        <v>47.35492772100734</v>
+        <v>28.74065221111234</v>
       </c>
       <c r="R10">
-        <v>284.129566326044</v>
+        <v>172.443913266674</v>
       </c>
       <c r="S10">
-        <v>0.03071142148915708</v>
+        <v>0.02061410277581093</v>
       </c>
       <c r="T10">
-        <v>0.02326437042438769</v>
+        <v>0.01536064012300654</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>15.939302</v>
       </c>
       <c r="I11">
-        <v>0.1594538715837432</v>
+        <v>0.1858758098371279</v>
       </c>
       <c r="J11">
-        <v>0.1695509261965365</v>
+        <v>0.2000782799754709</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N11">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O11">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P11">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q11">
-        <v>44.71690771176578</v>
+        <v>57.62657167858556</v>
       </c>
       <c r="R11">
-        <v>402.4521694058921</v>
+        <v>518.63914510727</v>
       </c>
       <c r="S11">
-        <v>0.02900056797718546</v>
+        <v>0.04133239783405814</v>
       </c>
       <c r="T11">
-        <v>0.03295255917299755</v>
+        <v>0.04619837900208537</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.671725333333334</v>
+        <v>5.633732333333334</v>
       </c>
       <c r="H12">
-        <v>14.015176</v>
+        <v>16.901197</v>
       </c>
       <c r="I12">
-        <v>0.1402052658345742</v>
+        <v>0.1970929266282699</v>
       </c>
       <c r="J12">
-        <v>0.1490834461639205</v>
+        <v>0.2121524785267629</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N12">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O12">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P12">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q12">
-        <v>65.57489376966579</v>
+        <v>88.49568344173078</v>
       </c>
       <c r="R12">
-        <v>590.1740439269921</v>
+        <v>796.4611509755769</v>
       </c>
       <c r="S12">
-        <v>0.04252774312172611</v>
+        <v>0.06347312859442113</v>
       </c>
       <c r="T12">
-        <v>0.04832312156145317</v>
+        <v>0.07094569405399682</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.671725333333334</v>
+        <v>5.633732333333334</v>
       </c>
       <c r="H13">
-        <v>14.015176</v>
+        <v>16.901197</v>
       </c>
       <c r="I13">
-        <v>0.1402052658345742</v>
+        <v>0.1970929266282699</v>
       </c>
       <c r="J13">
-        <v>0.1490834461639205</v>
+        <v>0.2121524785267629</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>17.55978</v>
       </c>
       <c r="O13">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P13">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q13">
-        <v>27.34482302458667</v>
+        <v>32.97570011740667</v>
       </c>
       <c r="R13">
-        <v>246.10340722128</v>
+        <v>296.78130105666</v>
       </c>
       <c r="S13">
-        <v>0.01773412875640271</v>
+        <v>0.02365167172725872</v>
       </c>
       <c r="T13">
-        <v>0.0201508097250595</v>
+        <v>0.0264361361002008</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.671725333333334</v>
+        <v>5.633732333333334</v>
       </c>
       <c r="H14">
-        <v>14.015176</v>
+        <v>16.901197</v>
       </c>
       <c r="I14">
-        <v>0.1402052658345742</v>
+        <v>0.1970929266282699</v>
       </c>
       <c r="J14">
-        <v>0.1490834461639205</v>
+        <v>0.2121524785267629</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N14">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O14">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P14">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q14">
-        <v>42.309980355944</v>
+        <v>61.74081065993568</v>
       </c>
       <c r="R14">
-        <v>380.789823203496</v>
+        <v>555.667295939421</v>
       </c>
       <c r="S14">
-        <v>0.02743958659518594</v>
+        <v>0.04428331713062886</v>
       </c>
       <c r="T14">
-        <v>0.03117885834759466</v>
+        <v>0.04949670417099697</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.671725333333334</v>
+        <v>5.633732333333334</v>
       </c>
       <c r="H15">
-        <v>14.015176</v>
+        <v>16.901197</v>
       </c>
       <c r="I15">
-        <v>0.1402052658345742</v>
+        <v>0.1970929266282699</v>
       </c>
       <c r="J15">
-        <v>0.1490834461639205</v>
+        <v>0.2121524785267629</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N15">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O15">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P15">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q15">
-        <v>41.63843852617867</v>
+        <v>30.47507506467317</v>
       </c>
       <c r="R15">
-        <v>249.830631157072</v>
+        <v>182.850450388039</v>
       </c>
       <c r="S15">
-        <v>0.02700406688954877</v>
+        <v>0.02185810972100455</v>
       </c>
       <c r="T15">
-        <v>0.02045599274215321</v>
+        <v>0.01628761439898923</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.671725333333334</v>
+        <v>5.633732333333334</v>
       </c>
       <c r="H16">
-        <v>14.015176</v>
+        <v>16.901197</v>
       </c>
       <c r="I16">
-        <v>0.1402052658345742</v>
+        <v>0.1970929266282699</v>
       </c>
       <c r="J16">
-        <v>0.1490834461639205</v>
+        <v>0.2121524785267629</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N16">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O16">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P16">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q16">
-        <v>39.31886928023289</v>
+        <v>61.10418388298277</v>
       </c>
       <c r="R16">
-        <v>353.869823522096</v>
+        <v>549.937654946845</v>
       </c>
       <c r="S16">
-        <v>0.02549974047171063</v>
+        <v>0.04382669945495668</v>
       </c>
       <c r="T16">
-        <v>0.02897466378765991</v>
+        <v>0.04898632980257908</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.9529025</v>
+        <v>6.087099</v>
       </c>
       <c r="H17">
-        <v>11.905805</v>
+        <v>12.174198</v>
       </c>
       <c r="I17">
-        <v>0.1786552543114266</v>
+        <v>0.2129537020222914</v>
       </c>
       <c r="J17">
-        <v>0.1266454619446545</v>
+        <v>0.15281676675182</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N17">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O17">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P17">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q17">
-        <v>83.55819771196836</v>
+        <v>95.617248798853</v>
       </c>
       <c r="R17">
-        <v>501.3491862718101</v>
+        <v>573.7034927931179</v>
       </c>
       <c r="S17">
-        <v>0.05419058062817358</v>
+        <v>0.06858103912888044</v>
       </c>
       <c r="T17">
-        <v>0.04105019175656138</v>
+        <v>0.05110329917228822</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.9529025</v>
+        <v>6.087099</v>
       </c>
       <c r="H18">
-        <v>11.905805</v>
+        <v>12.174198</v>
       </c>
       <c r="I18">
-        <v>0.1786552543114266</v>
+        <v>0.2129537020222914</v>
       </c>
       <c r="J18">
-        <v>0.1266454619446545</v>
+        <v>0.15281676675182</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>17.55978</v>
       </c>
       <c r="O18">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P18">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q18">
-        <v>34.84388608715</v>
+        <v>35.62937309274</v>
       </c>
       <c r="R18">
-        <v>209.0633165229</v>
+        <v>213.77623855644</v>
       </c>
       <c r="S18">
-        <v>0.02259754841665454</v>
+        <v>0.02555500666360936</v>
       </c>
       <c r="T18">
-        <v>0.01711798775689025</v>
+        <v>0.01904236458747818</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.9529025</v>
+        <v>6.087099</v>
       </c>
       <c r="H19">
-        <v>11.905805</v>
+        <v>12.174198</v>
       </c>
       <c r="I19">
-        <v>0.1786552543114266</v>
+        <v>0.2129537020222914</v>
       </c>
       <c r="J19">
-        <v>0.1266454619446545</v>
+        <v>0.15281676675182</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N19">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O19">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P19">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q19">
-        <v>53.9130984518175</v>
+        <v>66.70931535096901</v>
       </c>
       <c r="R19">
-        <v>323.478590710905</v>
+        <v>400.2558921058141</v>
       </c>
       <c r="S19">
-        <v>0.03496463768448906</v>
+        <v>0.04784695464277479</v>
       </c>
       <c r="T19">
-        <v>0.02648624659505413</v>
+        <v>0.03565325443666167</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.9529025</v>
+        <v>6.087099</v>
       </c>
       <c r="H20">
-        <v>11.905805</v>
+        <v>12.174198</v>
       </c>
       <c r="I20">
-        <v>0.1786552543114266</v>
+        <v>0.2129537020222914</v>
       </c>
       <c r="J20">
-        <v>0.1266454619446545</v>
+        <v>0.15281676675182</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N20">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O20">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P20">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q20">
-        <v>53.0573925290525</v>
+        <v>32.9275137644565</v>
       </c>
       <c r="R20">
-        <v>212.22957011621</v>
+        <v>131.710055057826</v>
       </c>
       <c r="S20">
-        <v>0.03440968075541015</v>
+        <v>0.02361711028360011</v>
       </c>
       <c r="T20">
-        <v>0.01737723883520916</v>
+        <v>0.01173222480283177</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.9529025</v>
+        <v>6.087099</v>
       </c>
       <c r="H21">
-        <v>11.905805</v>
+        <v>12.174198</v>
       </c>
       <c r="I21">
-        <v>0.1786552543114266</v>
+        <v>0.2129537020222914</v>
       </c>
       <c r="J21">
-        <v>0.1266454619446545</v>
+        <v>0.15281676675182</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N21">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O21">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P21">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q21">
-        <v>50.10170301867166</v>
+        <v>66.021456931705</v>
       </c>
       <c r="R21">
-        <v>300.61021811203</v>
+        <v>396.12874159023</v>
       </c>
       <c r="S21">
-        <v>0.03249280682669929</v>
+        <v>0.04735359130342674</v>
       </c>
       <c r="T21">
-        <v>0.02461379700093957</v>
+        <v>0.03528562375256017</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.333402</v>
+        <v>7.094445666666666</v>
       </c>
       <c r="H22">
-        <v>25.000206</v>
+        <v>21.283337</v>
       </c>
       <c r="I22">
-        <v>0.2500975034597578</v>
+        <v>0.2481951531448182</v>
       </c>
       <c r="J22">
-        <v>0.2659343603881907</v>
+        <v>0.2671593435583502</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.03654733333334</v>
+        <v>15.70818033333333</v>
       </c>
       <c r="N22">
-        <v>42.10964200000001</v>
+        <v>47.12454099999999</v>
       </c>
       <c r="O22">
-        <v>0.3033248635033714</v>
+        <v>0.3220467100482788</v>
       </c>
       <c r="P22">
-        <v>0.3241347232362797</v>
+        <v>0.334408980496766</v>
       </c>
       <c r="Q22">
-        <v>116.9721916206947</v>
+        <v>111.4408318970352</v>
       </c>
       <c r="R22">
-        <v>1052.749724586252</v>
+        <v>1002.967487073317</v>
       </c>
       <c r="S22">
-        <v>0.075860791099465</v>
+        <v>0.07993043252021743</v>
       </c>
       <c r="T22">
-        <v>0.08619856030344328</v>
+        <v>0.08934048370953315</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.333402</v>
+        <v>7.094445666666666</v>
       </c>
       <c r="H23">
-        <v>25.000206</v>
+        <v>21.283337</v>
       </c>
       <c r="I23">
-        <v>0.2500975034597578</v>
+        <v>0.2481951531448182</v>
       </c>
       <c r="J23">
-        <v>0.2659343603881907</v>
+        <v>0.2671593435583502</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>17.55978</v>
       </c>
       <c r="O23">
-        <v>0.1264868951307928</v>
+        <v>0.1200026410479322</v>
       </c>
       <c r="P23">
-        <v>0.1351646359375356</v>
+        <v>0.1246091315254933</v>
       </c>
       <c r="Q23">
-        <v>48.77756859052</v>
+        <v>41.52563504287333</v>
       </c>
       <c r="R23">
-        <v>438.99811731468</v>
+        <v>373.73071538586</v>
       </c>
       <c r="S23">
-        <v>0.03163405669258749</v>
+        <v>0.02978407387267419</v>
       </c>
       <c r="T23">
-        <v>0.03594492100515119</v>
+        <v>0.03329049377972692</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.333402</v>
+        <v>7.094445666666666</v>
       </c>
       <c r="H24">
-        <v>25.000206</v>
+        <v>21.283337</v>
       </c>
       <c r="I24">
-        <v>0.2500975034597578</v>
+        <v>0.2481951531448182</v>
       </c>
       <c r="J24">
-        <v>0.2659343603881907</v>
+        <v>0.2671593435583502</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.056607</v>
+        <v>10.959131</v>
       </c>
       <c r="N24">
-        <v>27.169821</v>
+        <v>32.877393</v>
       </c>
       <c r="O24">
-        <v>0.1957100999869823</v>
+        <v>0.2246824271585863</v>
       </c>
       <c r="P24">
-        <v>0.2091369575218488</v>
+        <v>0.2333072161810874</v>
       </c>
       <c r="Q24">
-        <v>75.472346887014</v>
+        <v>77.74895943338234</v>
       </c>
       <c r="R24">
-        <v>679.2511219831259</v>
+        <v>699.7406349004411</v>
       </c>
       <c r="S24">
-        <v>0.04894660740860387</v>
+        <v>0.0557650894175748</v>
       </c>
       <c r="T24">
-        <v>0.05561670303210507</v>
+        <v>0.0623302027223654</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.333402</v>
+        <v>7.094445666666666</v>
       </c>
       <c r="H25">
-        <v>25.000206</v>
+        <v>21.283337</v>
       </c>
       <c r="I25">
-        <v>0.2500975034597578</v>
+        <v>0.2481951531448182</v>
       </c>
       <c r="J25">
-        <v>0.2659343603881907</v>
+        <v>0.2671593435583502</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.912860999999999</v>
+        <v>5.4093935</v>
       </c>
       <c r="N25">
-        <v>17.825722</v>
+        <v>10.818787</v>
       </c>
       <c r="O25">
-        <v>0.1926037993566548</v>
+        <v>0.1109025579706895</v>
       </c>
       <c r="P25">
-        <v>0.1372116976666974</v>
+        <v>0.07677315161290731</v>
       </c>
       <c r="Q25">
-        <v>74.27445368312199</v>
+        <v>38.37664827536983</v>
       </c>
       <c r="R25">
-        <v>445.646722098732</v>
+        <v>230.259889652219</v>
       </c>
       <c r="S25">
-        <v>0.04816972937596348</v>
+        <v>0.02752547735968736</v>
       </c>
       <c r="T25">
-        <v>0.03648930505677097</v>
+        <v>0.02051066478781001</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.333402</v>
+        <v>7.094445666666666</v>
       </c>
       <c r="H26">
-        <v>25.000206</v>
+        <v>21.283337</v>
       </c>
       <c r="I26">
-        <v>0.2500975034597578</v>
+        <v>0.2481951531448182</v>
       </c>
       <c r="J26">
-        <v>0.2659343603881907</v>
+        <v>0.2671593435583502</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.416348666666666</v>
+        <v>10.84612833333333</v>
       </c>
       <c r="N26">
-        <v>25.249046</v>
+        <v>32.538385</v>
       </c>
       <c r="O26">
-        <v>0.1818743420221987</v>
+        <v>0.2223656637745133</v>
       </c>
       <c r="P26">
-        <v>0.1943519856376384</v>
+        <v>0.230901520183746</v>
       </c>
       <c r="Q26">
-        <v>70.13681681149733</v>
+        <v>76.94726815452721</v>
       </c>
       <c r="R26">
-        <v>631.231351303476</v>
+        <v>692.5254133907449</v>
       </c>
       <c r="S26">
-        <v>0.04548631888313802</v>
+        <v>0.05519007997466448</v>
       </c>
       <c r="T26">
-        <v>0.0516848709907202</v>
+        <v>0.06168749855891473</v>
       </c>
     </row>
   </sheetData>
